--- a/cummins/dcec/src/yyictrcfcrpx/label.xlsx
+++ b/cummins/dcec/src/yyictrcfcrpx/label.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="12780" windowHeight="6075" activeTab="1"/>
@@ -28,6 +28,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>必须要以</t>
@@ -48,6 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">开头
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>gplblmt.p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,14 +446,21 @@
   </si>
   <si>
     <t>INV-ADJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyictrcfcp-2.p</t>
+  </si>
+  <si>
+    <t>yyictrcfcp-2.p</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,11 +471,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -481,7 +492,16 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -518,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,17 +548,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,6 +640,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,6 +675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -830,7 +860,7 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -841,12 +871,12 @@
     <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -872,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -898,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -924,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -935,7 +965,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -946,7 +976,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -957,7 +987,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -968,7 +998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -979,7 +1009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -990,7 +1020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1001,7 +1031,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -1012,7 +1042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1047,27 +1077,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1100,290 +1130,554 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
